--- a/testsets/Set C Lightness/Meetingen Per algoritme/lightness Luminance.xlsx
+++ b/testsets/Set C Lightness/Meetingen Per algoritme/lightness Luminance.xlsx
@@ -5,20 +5,28 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ties1\OneDrive\Bureaublad\STUDIE\HBO-ICT jaar 2019-2020\Vision\Github repo\HU-Vision-Ties-Mick\testsets\Set C Lightness\Meetingen Per algoritme\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mickb\source\repos\Tiesbrouwer10\HU-Vision-Ties-Mick\testsets\Set C Lightness\Meetingen Per algoritme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F4334C-E544-48BF-95A1-28F6B6358152}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF89072-E81D-439B-9A03-7C292D9CABA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-23760" yWindow="-6600" windowWidth="15120" windowHeight="8850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -8493,10 +8501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U102"/>
+  <dimension ref="A1:U104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AG85" sqref="X2:AG85"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R104" sqref="R104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12353,6 +12361,36 @@
         <v>4</v>
       </c>
     </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B104">
+        <f>COUNTIF(B3:B102,12)</f>
+        <v>15</v>
+      </c>
+      <c r="E104">
+        <f>COUNTIF(E3:E102,12)</f>
+        <v>27</v>
+      </c>
+      <c r="H104">
+        <f>COUNTIF(H3:H102,12)</f>
+        <v>85</v>
+      </c>
+      <c r="K104">
+        <f>COUNTIF(K3:K102,12)</f>
+        <v>16</v>
+      </c>
+      <c r="N104">
+        <f>COUNTIF(N3:N102,12)</f>
+        <v>31</v>
+      </c>
+      <c r="P104">
+        <f>AVERAGE(B104:N104)</f>
+        <v>34.799999999999997</v>
+      </c>
+      <c r="R104">
+        <f>AVERAGE(B104:O104)</f>
+        <v>34.799999999999997</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testsets/Set C Lightness/Meetingen Per algoritme/lightness Luminance.xlsx
+++ b/testsets/Set C Lightness/Meetingen Per algoritme/lightness Luminance.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mickb\source\repos\Tiesbrouwer10\HU-Vision-Ties-Mick\testsets\Set C Lightness\Meetingen Per algoritme\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ties1\OneDrive\Bureaublad\STUDIE\HBO-ICT jaar 2019-2020\Vision\Github repo\HU-Vision-Ties-Mick\testsets\Set C Lightness\Meetingen Per algoritme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF89072-E81D-439B-9A03-7C292D9CABA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83727E4C-F515-4CC4-B249-0D0EA5D0C6FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="-8835" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,8 +32,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="115">
   <si>
     <t>LIGHTNESS METINGEN</t>
   </si>
@@ -358,12 +380,33 @@
   <si>
     <t>Luminance</t>
   </si>
+  <si>
+    <t>Picture1</t>
+  </si>
+  <si>
+    <t>Picture 2</t>
+  </si>
+  <si>
+    <t>Picture3</t>
+  </si>
+  <si>
+    <t>Picture4</t>
+  </si>
+  <si>
+    <t>Picture5</t>
+  </si>
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>Dark</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,6 +416,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -398,8 +449,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8057,23 +8109,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>20410</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>51162</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>50890</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142602</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>300445</xdr:colOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>330925</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>139064</xdr:rowOff>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01F79D44-C890-4A9E-B8AF-D15B23B6DDB0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CE5A067-1033-4751-A438-556AE68E0EE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8093,23 +8145,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>76744</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>127091</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>320584</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>96611</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>358684</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>602524</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="10" name="Chart 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05BEEBEE-6F0E-4FCB-B2DE-9A0EA63C1B72}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B16CC31-F37E-4A92-BC2E-38C9AD7740F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8129,23 +8181,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>119470</xdr:colOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>363310</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>16329</xdr:rowOff>
+      <xdr:rowOff>168729</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>395695</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>108041</xdr:rowOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>29935</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>77561</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="11" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{161AC6AE-B5FC-4B41-ADC0-1739F747023C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC604D2E-1363-4374-9B35-2A1C2B58B5F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8165,23 +8217,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>117565</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>86268</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>361405</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>55788</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>399505</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>174170</xdr:rowOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>33745</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>143690</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
+        <xdr:cNvPr id="12" name="Chart 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E31C74AF-DF93-43E8-B37F-6255D8005396}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C005748-0478-4878-99F9-77F0B57F2789}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8201,23 +8253,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>154576</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>169817</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>398416</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>139337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>438421</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>82731</xdr:rowOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>72661</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>52251</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7">
+        <xdr:cNvPr id="13" name="Chart 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F8272A3-FFB6-4ADA-96F4-8B5F4D3DB110}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D484336C-66FA-48C6-B7D0-92E4EC790808}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8501,15 +8553,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U104"/>
+  <dimension ref="A1:AH104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R104" sqref="R104"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD22" sqref="AD22:AH33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8529,7 +8581,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>100</v>
       </c>
@@ -8567,7 +8619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8605,7 +8657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -8643,7 +8695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -8681,7 +8733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -8718,8 +8770,25 @@
       <c r="U6">
         <v>2</v>
       </c>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -8756,8 +8825,31 @@
       <c r="U7">
         <v>2</v>
       </c>
+      <c r="AC7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD7" cm="1">
+        <f t="array" ref="AD7:AD18">COUNTIF(B3:B52,AC7:AC18)</f>
+        <v>0</v>
+      </c>
+      <c r="AE7" cm="1">
+        <f t="array" ref="AE7:AE18">COUNTIF(E3:E52,AC7:AC18)</f>
+        <v>0</v>
+      </c>
+      <c r="AF7" cm="1">
+        <f t="array" ref="AF7:AF18">COUNTIF(H3:H52,AC7:AC18)</f>
+        <v>0</v>
+      </c>
+      <c r="AG7" cm="1">
+        <f t="array" ref="AG7:AG18">COUNTIF(K3:K52,AC7:AC18)</f>
+        <v>0</v>
+      </c>
+      <c r="AH7" cm="1">
+        <f t="array" ref="AH7:AH18">COUNTIF(N3:N52,AC7:AC18)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -8794,8 +8886,26 @@
       <c r="U8">
         <v>2</v>
       </c>
+      <c r="AC8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD8">
+        <v>42</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -8832,8 +8942,26 @@
       <c r="U9">
         <v>2</v>
       </c>
+      <c r="AC9" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -8870,8 +8998,26 @@
       <c r="U10">
         <v>2</v>
       </c>
+      <c r="AC10" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>34</v>
+      </c>
+      <c r="AF10">
+        <v>2</v>
+      </c>
+      <c r="AG10">
+        <v>37</v>
+      </c>
+      <c r="AH10">
+        <v>35</v>
+      </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -8908,8 +9054,29 @@
       <c r="U11">
         <v>2</v>
       </c>
+      <c r="AB11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>4</v>
+      </c>
+      <c r="AG11">
+        <v>2</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -8946,8 +9113,26 @@
       <c r="U12">
         <v>2</v>
       </c>
+      <c r="AC12" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -8984,8 +9169,26 @@
       <c r="U13">
         <v>2</v>
       </c>
+      <c r="AC13" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -9022,8 +9225,26 @@
       <c r="U14">
         <v>2</v>
       </c>
+      <c r="AC14" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -9060,8 +9281,26 @@
       <c r="U15">
         <v>2</v>
       </c>
+      <c r="AC15" s="1">
+        <v>9</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>2</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>2</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -9098,8 +9337,26 @@
       <c r="U16">
         <v>2</v>
       </c>
+      <c r="AC16" s="1">
+        <v>10</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -9136,8 +9393,26 @@
       <c r="U17">
         <v>2</v>
       </c>
+      <c r="AC17" s="1">
+        <v>11</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -9174,8 +9449,26 @@
       <c r="U18">
         <v>2</v>
       </c>
+      <c r="AC18" s="1">
+        <v>12</v>
+      </c>
+      <c r="AD18">
+        <v>8</v>
+      </c>
+      <c r="AE18">
+        <v>14</v>
+      </c>
+      <c r="AF18">
+        <v>43</v>
+      </c>
+      <c r="AG18">
+        <v>9</v>
+      </c>
+      <c r="AH18">
+        <v>15</v>
+      </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -9212,8 +9505,9 @@
       <c r="U19">
         <v>2</v>
       </c>
+      <c r="AC19" s="1"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -9250,8 +9544,9 @@
       <c r="U20">
         <v>2</v>
       </c>
+      <c r="AC20" s="1"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -9288,8 +9583,24 @@
       <c r="U21">
         <v>2</v>
       </c>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG21" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH21" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -9326,8 +9637,31 @@
       <c r="U22">
         <v>2</v>
       </c>
+      <c r="AC22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD22" cm="1">
+        <f t="array" ref="AD22:AD33">COUNTIF(B52:B102,AC22:AC33)</f>
+        <v>0</v>
+      </c>
+      <c r="AE22" cm="1">
+        <f t="array" ref="AE22:AE33">COUNTIF(E52:E102,AC22:AC33)</f>
+        <v>0</v>
+      </c>
+      <c r="AF22" cm="1">
+        <f t="array" ref="AF22:AF33">COUNTIF(H52:H102,AC22:AC33)</f>
+        <v>0</v>
+      </c>
+      <c r="AG22" cm="1">
+        <f t="array" ref="AG22:AG33">COUNTIF(K52:K102,AC22:AC33)</f>
+        <v>0</v>
+      </c>
+      <c r="AH22" cm="1">
+        <f t="array" ref="AH22:AH33">COUNTIF(N52:N102,AC22:AC33)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -9364,8 +9698,26 @@
       <c r="U23">
         <v>2</v>
       </c>
+      <c r="AC23" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD23">
+        <v>43</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -9402,8 +9754,26 @@
       <c r="U24">
         <v>2</v>
       </c>
+      <c r="AC24" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -9440,8 +9810,26 @@
       <c r="U25">
         <v>2</v>
       </c>
+      <c r="AC25" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>36</v>
+      </c>
+      <c r="AF25">
+        <v>3</v>
+      </c>
+      <c r="AG25">
+        <v>37</v>
+      </c>
+      <c r="AH25">
+        <v>34</v>
+      </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -9478,8 +9866,29 @@
       <c r="U26">
         <v>2</v>
       </c>
+      <c r="AB26" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>5</v>
+      </c>
+      <c r="AG26">
+        <v>3</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -9516,8 +9925,26 @@
       <c r="U27">
         <v>2</v>
       </c>
+      <c r="AC27" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -9554,8 +9981,26 @@
       <c r="U28">
         <v>2</v>
       </c>
+      <c r="AC28" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -9592,8 +10037,26 @@
       <c r="U29">
         <v>2</v>
       </c>
+      <c r="AC29" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -9630,8 +10093,26 @@
       <c r="U30">
         <v>2</v>
       </c>
+      <c r="AC30" s="1">
+        <v>9</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>3</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -9668,8 +10149,26 @@
       <c r="U31">
         <v>2</v>
       </c>
+      <c r="AC31" s="1">
+        <v>10</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -9706,8 +10205,26 @@
       <c r="U32">
         <v>2</v>
       </c>
+      <c r="AC32" s="1">
+        <v>11</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -9744,8 +10261,26 @@
       <c r="U33">
         <v>2</v>
       </c>
+      <c r="AC33" s="1">
+        <v>12</v>
+      </c>
+      <c r="AD33">
+        <v>8</v>
+      </c>
+      <c r="AE33">
+        <v>14</v>
+      </c>
+      <c r="AF33">
+        <v>43</v>
+      </c>
+      <c r="AG33">
+        <v>8</v>
+      </c>
+      <c r="AH33">
+        <v>17</v>
+      </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -9783,7 +10318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -9821,7 +10356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -9859,7 +10394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -9897,7 +10432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -9935,7 +10470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -9973,7 +10508,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -10011,7 +10546,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -10049,7 +10584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -10087,7 +10622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -10125,7 +10660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -10163,7 +10698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -10201,7 +10736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -10239,7 +10774,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -10277,7 +10812,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
